--- a/Horarios_Unicos.xlsx
+++ b/Horarios_Unicos.xlsx
@@ -492,24 +492,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/508</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>D-COMUNICACION EFECTIVA - UPO/523</t>
-        </is>
-      </c>
+          <t>D-COMUNICACION EFECTIVA - UPO/505</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/505</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/014</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>D-PSICOLOGIA MEDICA - UPO/501</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPO/519</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>D-HISTOLOGIA - UPO/215</t>
+          <t>D-HIST DEL CONOCIM Y LA PRAC M - UPE/319</t>
         </is>
       </c>
     </row>
@@ -524,18 +528,14 @@
           <t>09:05</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPO/413</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>D-HISTOLOGIA - UPO/215</t>
+          <t>D-HIST DEL CONOCIM Y LA PRAC M - UPE/319</t>
         </is>
       </c>
     </row>
@@ -550,22 +550,14 @@
           <t>10:10</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPO/413</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D-COMUNICACION EFECTIVA - UPE/319</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>D-HISTOLOGIA - UPO/215</t>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/319</t>
         </is>
       </c>
     </row>
@@ -587,7 +579,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>D-HISTOLOGIA - UPO/215</t>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/319</t>
         </is>
       </c>
     </row>
@@ -623,15 +615,15 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>D-COMUNICACION EFECTIVA - UPO/012</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>D-COMUNICACION EFECTIVA - UPO/523</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/326</t>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/122</t>
         </is>
       </c>
     </row>
@@ -647,13 +639,21 @@
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPO/413</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>D-COMUNICACION EFECTIVA - UPO/523</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/326</t>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/122</t>
         </is>
       </c>
     </row>
@@ -668,20 +668,20 @@
           <t>15:35</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>D-HISTOLOGIA - UPO/015</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPO/413</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/511</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/326</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -694,23 +694,19 @@
           <t>16:40</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>D-HIST DEL CONOCIM Y LA PRAC M - UPE/328</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>D-HISTOLOGIA - UPO/015</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/122</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/511</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -725,27 +721,11 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>D-HIST DEL CONOCIM Y LA PRAC M - UPE/328</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>D-PSICOLOGIA MEDICA - UPO/523</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/511</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/119</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -759,19 +739,15 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>D-PSICOLOGIA MEDICA - UPO/501</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>D-PSICOLOGIA MEDICA - UPO/523</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/119</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -785,19 +761,23 @@
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>D-PSICOLOGIA MEDICA - UPO/501</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/217</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>D-PSICOLOGIA MEDICA - UPO/523</t>
+          <t>D-HISTOLOGIA - UPO/520</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/119</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -810,16 +790,28 @@
           <t>20:49</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/120</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/119</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/217</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>D-HISTOLOGIA - UPO/520</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/119</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -832,8 +824,16 @@
           <t>21:49</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/120</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/119</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -911,28 +911,28 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPE/417</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/123</t>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/508</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>D-PSICOLOGIA MEDICA - UPO/224</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/012</t>
-        </is>
-      </c>
+          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/522</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>D-COMUNICACION EFECTIVA - UPO/014</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/219</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -945,20 +945,16 @@
           <t>09:05</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPE/417</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/012</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/219</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -975,12 +971,12 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/012</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>D-PSICOLOGIA MEDICA - UPE/317</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1016,11 +1012,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/317</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1039,14 +1031,10 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/523</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/317</t>
-        </is>
-      </c>
+          <t>D-HISTOLOGIA - UPO/520</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1065,14 +1053,10 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/523</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/317</t>
-        </is>
-      </c>
+          <t>D-HISTOLOGIA - UPO/520</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1116,11 +1100,7 @@
           <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/523</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>D-COMUNICACION EFECTIVA - UPO/523</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1136,13 +1116,13 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>D-PSICOLOGIA MEDICA - UPO/523</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>D-COMUNICACION EFECTIVA - UPO/523</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1158,17 +1138,21 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>D-HISTOLOGIA - UPO/520</t>
+          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPO/309</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>D-COMUNICACION EFECTIVA - UPO/523</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>D-PSICOLOGIA MEDICA - UPO/523</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPO/519</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1184,7 +1168,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>D-HISTOLOGIA - UPE/119</t>
+          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPO/309</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1194,10 +1178,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>D-PSICOLOGIA MEDICA - UPO/501</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/508</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPO/519</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1211,10 +1199,14 @@
           <t>20:49</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>D-HISTOLOGIA - UPO/215</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>D-HISTOLOGIA - UPE/119</t>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/326</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1224,10 +1216,14 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>D-PSICOLOGIA MEDICA - UPO/501</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/508</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>D-COMUNICACION EFECTIVA - UPO/523</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1241,10 +1237,14 @@
           <t>21:49</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>D-HISTOLOGIA - UPO/215</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>D-HISTOLOGIA - UPE/119</t>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/326</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1252,12 +1252,12 @@
           <t>D-HIST DEL CONOCIM Y LA PRAC M - UPE/326</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/119</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>D-COMUNICACION EFECTIVA - UPO/523</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
     </row>
   </sheetData>
@@ -1334,24 +1334,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPO/410</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>D-HISTOLOGIA - UPO/520</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>D-PSICOLOGIA MEDICA - UPO/501</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>D-HIST DEL CONOCIM Y LA PRAC M - UPO/514</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>D-HISTOLOGIA - UPO/513</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/514</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPE/424</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>D-PSICOLOGIA MEDICA - UPO/224</t>
+          <t>D-HISTOLOGIA - UPO/215</t>
         </is>
       </c>
     </row>
@@ -1366,22 +1370,18 @@
           <t>09:05</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPO/410</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>D-HIST DEL CONOCIM Y LA PRAC M - UPO/511</t>
+          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPE/424</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>D-PSICOLOGIA MEDICA - UPO/224</t>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/317</t>
         </is>
       </c>
     </row>
@@ -1399,11 +1399,15 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/319</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>D-PSICOLOGIA MEDICA - UPO/224</t>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/317</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1427,11 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/014</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1441,11 +1449,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/122</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1458,20 +1462,16 @@
           <t>13:25</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>D-COMUNICACION EFECTIVA - UPE/123</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>D-HISTOLOGIA - UPO/520</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/122</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1490,14 +1490,10 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>D-HISTOLOGIA - UPO/520</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/122</t>
-        </is>
-      </c>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/508</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1514,12 +1510,12 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/122</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/508</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1533,10 +1529,18 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPE/328</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>D-COMUNICACION EFECTIVA - UPO/514</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1551,15 +1555,19 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPE/328</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>D-COMUNICACION EFECTIVA - UPO/205</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>D-COMUNICACION EFECTIVA - UPO/514</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1572,16 +1580,16 @@
           <t>18:49</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/523</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>D-COMUNICACION EFECTIVA - UPO/205</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1596,26 +1604,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/326</t>
+          <t>D-HIST DEL CONOCIM Y LA PRAC M - UPE/326</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/522</t>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/119</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/319</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>D-COMUNICACION EFECTIVA - UPO/205</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1630,22 +1630,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/326</t>
+          <t>D-HIST DEL CONOCIM Y LA PRAC M - UPE/326</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/522</t>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPO/519</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>D-PSICOLOGIA MEDICA - UPO/202</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>D-HISTOLOGIA - UPO/513</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/508</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1665,17 +1665,17 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/522</t>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPO/519</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPO/519</t>
+          <t>D-PSICOLOGIA MEDICA - UPO/202</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/508</t>
+          <t>D-HISTOLOGIA - UPO/513</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1753,10 +1753,14 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>D-PSICOLOGIA MEDICA - UPO/224</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>D-COMUNICACION EFECTIVA - UPO/505</t>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/123</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1766,17 +1770,13 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>D-PSICOLOGIA MEDICA - UPO/501</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/508</t>
-        </is>
-      </c>
+          <t>D-HISTOLOGIA - UPO/513</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>D-HISTOLOGIA - UPE/319</t>
+          <t>D-HIST DEL CONOCIM Y LA PRAC M - UPO/511</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>D-HISTOLOGIA - UPE/319</t>
+          <t>D-HIST DEL CONOCIM Y LA PRAC M - UPO/511</t>
         </is>
       </c>
     </row>
@@ -1814,13 +1814,17 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPE/417</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>D-HISTOLOGIA - UPE/319</t>
+          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/012</t>
         </is>
       </c>
     </row>
@@ -1840,11 +1844,7 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>D-HISTOLOGIA - UPE/319</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1862,7 +1862,11 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D-HISTOLOGIA - UPO/215</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1875,18 +1879,18 @@
           <t>13:25</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/123</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D-COMUNICACION EFECTIVA - UPO/012</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/014</t>
+          <t>D-HISTOLOGIA - UPO/215</t>
         </is>
       </c>
     </row>
@@ -1903,20 +1907,12 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>D-COMUNICACION EFECTIVA - UPO/012</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>D-HIST DEL CONOCIM Y LA PRAC M - UPO/518</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/014</t>
+          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPE/417</t>
         </is>
       </c>
     </row>
@@ -1935,11 +1931,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>D-HIST DEL CONOCIM Y LA PRAC M - UPO/518</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1957,7 +1949,11 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/223</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1973,17 +1969,13 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPO/410</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>D-COMUNICACION EFECTIVA - UPO/015</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/223</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1997,21 +1989,17 @@
           <t>18:49</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/523</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPO/410</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>D-HISTOLOGIA - UPO/520</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPO/519</t>
+          <t>D-COMUNICACION EFECTIVA - UPO/523</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -2027,21 +2015,21 @@
           <t>19:49</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/505</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/522</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/508</t>
+          <t>D-PSICOLOGIA MEDICA - UPO/523</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPO/519</t>
+          <t>D-COMUNICACION EFECTIVA - UPO/523</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -2059,18 +2047,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/505</t>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/122</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/326</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/522</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPO/519</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>D-PSICOLOGIA MEDICA - UPO/224</t>
+          <t>D-PSICOLOGIA MEDICA - UPO/523</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -2089,14 +2081,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/505</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/122</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/120</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPO/519</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>D-PSICOLOGIA MEDICA - UPO/224</t>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/326</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -2176,32 +2176,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D-HISTOLOGIA - UPO/520</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>D-HIST DEL CONOCIM Y LA PRAC M - UPO/518</t>
-        </is>
-      </c>
+          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/522</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>D-HISTOLOGIA - UPO/520</t>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/523</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>D-COMUNICACION EFECTIVA - UPO/502</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/523</t>
-        </is>
-      </c>
+          <t>D-HISTOLOGIA - UPO/502</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/317</t>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPO/519</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2215,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/317</t>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPO/519</t>
         </is>
       </c>
     </row>
@@ -2238,16 +2230,20 @@
           <t>10:10</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPO/410</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPE/424</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/014</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2260,18 +2256,18 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPO/410</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I PRA - UPE/424</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/508</t>
+          <t>D-COMUNICACION EFECTIVA - UPO/523</t>
         </is>
       </c>
     </row>
@@ -2291,11 +2287,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/508</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2313,11 +2305,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/508</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2334,16 +2322,8 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/508</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/508</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2358,13 +2338,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>D-HISTOLOGIA - UPO/015</t>
+          <t>D-HISTOLOGIA - UPO/520</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>D-HISTOLOGIA - UPO/520</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -2378,17 +2362,13 @@
           <t>16:40</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>D-HISTOLOGIA - UPO/015</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>D-PSICOLOGIA MEDICA - UPO/224</t>
+          <t>D-HISTOLOGIA - UPO/520</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -2406,17 +2386,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D-COMUNICACION EFECTIVA - UPO/224</t>
+          <t>D-PSICOLOGIA MEDICA - UPO/224</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>D-PSICOLOGIA MEDICA - UPO/224</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -2432,13 +2408,13 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>D-COMUNICACION EFECTIVA - UPE/320</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/508</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -2461,10 +2437,14 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>D-PSICOLOGIA MEDICA - UPE/316</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/319</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPO/508</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -2480,7 +2460,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D-QUIMICA GENERAL PARA MEDICIN - UPE/317</t>
+          <t>D-HIST DEL CONOCIM Y LA PRAC M - UPO/518</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2488,13 +2468,21 @@
           <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/014</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>D-PSICOLOGIA MEDICA - UPE/323</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>D-QUIMICA GENERAL PARA MEDICIN - UPO/519</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>D-COMUNICACION EFECTIVA - UPO/209</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -2508,19 +2496,31 @@
           <t>21:49</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>D-HIST DEL CONOCIM Y LA PRAC M - UPO/518</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>D-APREDIZ ESTRATEGIC Y LIDERAZ - UPO/014</t>
+          <t>D-ANATOM CLINIC E IMAGENOL I TEO - UPE/122</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>D-HIST DEL CONOCIM Y LA PRAC M - UPE/328</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+          <t>D-PSICOLOGIA MEDICA - UPE/323</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>D-QUIMICA GENERAL PARA MEDICIN - UPO/519</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>D-COMUNICACION EFECTIVA - UPO/209</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
     </row>
   </sheetData>
